--- a/メルレ・AIツールその他の紹介者表/藤井昌/SNS報酬.xlsx
+++ b/メルレ・AIツールその他の紹介者表/藤井昌/SNS報酬.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ・AIツールその他の紹介者表\藤井昌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD67034-478C-4C85-9886-2628A2A501D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79848D-10A4-4A78-B8FA-AFE38091F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>11月合計</t>
   </si>
@@ -236,6 +236,46 @@
   </si>
   <si>
     <t xml:space="preserve">木下 雄貴 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月12日 13:55</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下 昂樹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">山本 寛人 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月12日 22:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月15日 23:50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月18日 10:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月22日 10:01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲垣 まゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月24日 10:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年2月26日 7:02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,10 +814,10 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -794,7 +834,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.5" thickBot="1">
+    <row r="3" spans="1:5" ht="19.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -871,7 +911,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" thickBot="1">
+    <row r="10" spans="1:5" ht="19.5" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>0</v>
       </c>
@@ -925,7 +965,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" thickBot="1">
+    <row r="15" spans="1:5" ht="19.5" thickBot="1">
       <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
@@ -1064,13 +1104,13 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1081,7 +1121,7 @@
       </c>
       <c r="B1" s="14">
         <f>SUM(C4:C19)</f>
-        <v>32500</v>
+        <v>74750</v>
       </c>
       <c r="E1" s="16">
         <v>45323</v>
@@ -1154,39 +1194,81 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3250</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
